--- a/ЗАВОДЫ/ПОКОМ/заказы/статистика филиалы/2025/12,25/09,12,25 ПОКОМ КИ филиалы/дв 09,12,25 днрсч пок ки от Хмель (согласовал Рагуз).xlsx
+++ b/ЗАВОДЫ/ПОКОМ/заказы/статистика филиалы/2025/12,25/09,12,25 ПОКОМ КИ филиалы/дв 09,12,25 днрсч пок ки от Хмель (согласовал Рагуз).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\ПОКОМ\заказы\статистика филиалы\2025\12,25\09,12,25 ПОКОМ КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC39FFC-C87C-43D3-AC48-A81460EF967C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1119760D-C973-450C-A063-AE2745DADB0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -692,6 +692,25 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="5">
+          <cell r="AL5">
+            <v>4210</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1533,25 +1552,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="5">
-          <cell r="AL5">
-            <v>4210</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1843,7 +1843,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AC1" sqref="AC1"/>
+      <selection pane="bottomRight" activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1915,7 +1915,7 @@
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
       <c r="AN1" s="1">
-        <f>AN5+[2]Sheet!$AL$5</f>
+        <f>AN5+[1]Sheet!$AL$5</f>
         <v>8627</v>
       </c>
       <c r="AO1" s="1"/>
@@ -2406,7 +2406,7 @@
         <v>282.87736000000012</v>
       </c>
       <c r="R6" s="1">
-        <f>IFERROR(VLOOKUP(A6,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A6,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S6" s="1">
@@ -2536,7 +2536,7 @@
         <v>142.02900000000011</v>
       </c>
       <c r="R7" s="1">
-        <f>IFERROR(VLOOKUP(A7,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A7,[2]Sheet!$A:$D,4,0),0)</f>
         <v>84</v>
       </c>
       <c r="S7" s="1">
@@ -2594,7 +2594,7 @@
       </c>
       <c r="AL7" s="1"/>
       <c r="AM7" s="1">
-        <f t="shared" ref="AM7:AN70" si="11">ROUND(G7*W7,0)</f>
+        <f t="shared" ref="AM7:AM70" si="11">ROUND(G7*W7,0)</f>
         <v>120</v>
       </c>
       <c r="AN7" s="1">
@@ -2669,7 +2669,7 @@
         <v>102.46709</v>
       </c>
       <c r="R8" s="1">
-        <f>IFERROR(VLOOKUP(A8,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A8,[2]Sheet!$A:$D,4,0),0)</f>
         <v>139</v>
       </c>
       <c r="S8" s="1">
@@ -2802,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="1">
-        <f>IFERROR(VLOOKUP(A9,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A9,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S9" s="1">
@@ -2934,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="1">
-        <f>IFERROR(VLOOKUP(A10,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A10,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S10" s="1">
@@ -3067,7 +3067,7 @@
         <v>77.400000000000034</v>
       </c>
       <c r="R11" s="1">
-        <f>IFERROR(VLOOKUP(A11,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A11,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S11" s="1">
@@ -3195,7 +3195,7 @@
         <v>40.199999999999989</v>
       </c>
       <c r="R12" s="1">
-        <f>IFERROR(VLOOKUP(A12,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A12,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S12" s="1">
@@ -3328,7 +3328,7 @@
         <v>51.599999999999987</v>
       </c>
       <c r="R13" s="1">
-        <f>IFERROR(VLOOKUP(A13,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A13,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S13" s="1">
@@ -3461,7 +3461,7 @@
         <v>563.20830799999953</v>
       </c>
       <c r="R14" s="1">
-        <f>IFERROR(VLOOKUP(A14,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A14,[2]Sheet!$A:$D,4,0),0)</f>
         <v>100</v>
       </c>
       <c r="S14" s="1">
@@ -3602,7 +3602,7 @@
         <v>256.82569200000188</v>
       </c>
       <c r="R15" s="1">
-        <f>IFERROR(VLOOKUP(A15,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A15,[2]Sheet!$A:$D,4,0),0)</f>
         <v>128</v>
       </c>
       <c r="S15" s="1">
@@ -3743,7 +3743,7 @@
         <v>41.353199999999987</v>
       </c>
       <c r="R16" s="1">
-        <f>IFERROR(VLOOKUP(A16,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A16,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S16" s="1">
@@ -3882,7 +3882,7 @@
         <v>179.90344599999969</v>
       </c>
       <c r="R17" s="1">
-        <f>IFERROR(VLOOKUP(A17,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A17,[2]Sheet!$A:$D,4,0),0)</f>
         <v>118</v>
       </c>
       <c r="S17" s="1">
@@ -4003,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="R18" s="1">
-        <f>IFERROR(VLOOKUP(A18,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A18,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S18" s="15">
@@ -4131,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="1">
-        <f>IFERROR(VLOOKUP(A19,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A19,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S19" s="1">
@@ -4263,7 +4263,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="1">
-        <f>IFERROR(VLOOKUP(A20,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A20,[2]Sheet!$A:$D,4,0),0)</f>
         <v>275</v>
       </c>
       <c r="S20" s="1">
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="R21" s="1">
-        <f>IFERROR(VLOOKUP(A21,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A21,[2]Sheet!$A:$D,4,0),0)</f>
         <v>68</v>
       </c>
       <c r="S21" s="1">
@@ -4537,7 +4537,7 @@
         <v>69.047730000000001</v>
       </c>
       <c r="R22" s="1">
-        <f>IFERROR(VLOOKUP(A22,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A22,[2]Sheet!$A:$D,4,0),0)</f>
         <v>55</v>
       </c>
       <c r="S22" s="1">
@@ -4672,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="1">
-        <f>IFERROR(VLOOKUP(A23,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A23,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S23" s="1">
@@ -4804,7 +4804,7 @@
         <v>747.56423800000107</v>
       </c>
       <c r="R24" s="1">
-        <f>IFERROR(VLOOKUP(A24,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A24,[2]Sheet!$A:$D,4,0),0)</f>
         <v>100</v>
       </c>
       <c r="S24" s="1">
@@ -4933,7 +4933,7 @@
         <v>0</v>
       </c>
       <c r="R25" s="1">
-        <f>IFERROR(VLOOKUP(A25,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A25,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S25" s="15">
@@ -5053,7 +5053,7 @@
         <v>0</v>
       </c>
       <c r="R26" s="1">
-        <f>IFERROR(VLOOKUP(A26,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A26,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S26" s="15">
@@ -5185,7 +5185,7 @@
         <v>811.75639999999964</v>
       </c>
       <c r="R27" s="1">
-        <f>IFERROR(VLOOKUP(A27,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A27,[2]Sheet!$A:$D,4,0),0)</f>
         <v>88</v>
       </c>
       <c r="S27" s="1">
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="R28" s="1">
-        <f>IFERROR(VLOOKUP(A28,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A28,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S28" s="15">
@@ -5428,7 +5428,7 @@
         <v>0</v>
       </c>
       <c r="R29" s="1">
-        <f>IFERROR(VLOOKUP(A29,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A29,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S29" s="15">
@@ -5548,7 +5548,7 @@
         <v>0</v>
       </c>
       <c r="R30" s="1">
-        <f>IFERROR(VLOOKUP(A30,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A30,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S30" s="15">
@@ -5668,7 +5668,7 @@
         <v>0</v>
       </c>
       <c r="R31" s="1">
-        <f>IFERROR(VLOOKUP(A31,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A31,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S31" s="15">
@@ -5798,7 +5798,7 @@
         <v>0</v>
       </c>
       <c r="R32" s="1">
-        <f>IFERROR(VLOOKUP(A32,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A32,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S32" s="1">
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="R33" s="1">
-        <f>IFERROR(VLOOKUP(A33,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A33,[2]Sheet!$A:$D,4,0),0)</f>
         <v>205</v>
       </c>
       <c r="S33" s="1">
@@ -6062,7 +6062,7 @@
         <v>52.599999999999909</v>
       </c>
       <c r="R34" s="1">
-        <f>IFERROR(VLOOKUP(A34,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A34,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S34" s="1">
@@ -6201,7 +6201,7 @@
         <v>0</v>
       </c>
       <c r="R35" s="1">
-        <f>IFERROR(VLOOKUP(A35,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A35,[2]Sheet!$A:$D,4,0),0)</f>
         <v>180</v>
       </c>
       <c r="S35" s="1">
@@ -6329,7 +6329,7 @@
         <v>50</v>
       </c>
       <c r="R36" s="1">
-        <f>IFERROR(VLOOKUP(A36,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A36,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S36" s="1">
@@ -6459,7 +6459,7 @@
         <v>0</v>
       </c>
       <c r="R37" s="1">
-        <f>IFERROR(VLOOKUP(A37,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A37,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S37" s="1">
@@ -6587,7 +6587,7 @@
         <v>164.8000000000001</v>
       </c>
       <c r="R38" s="1">
-        <f>IFERROR(VLOOKUP(A38,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A38,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S38" s="1">
@@ -6723,7 +6723,7 @@
         <v>116.8</v>
       </c>
       <c r="R39" s="1">
-        <f>IFERROR(VLOOKUP(A39,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A39,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S39" s="1">
@@ -6851,7 +6851,7 @@
         <v>17.15100000000001</v>
       </c>
       <c r="R40" s="1">
-        <f>IFERROR(VLOOKUP(A40,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A40,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S40" s="1">
@@ -6984,7 +6984,7 @@
         <v>274.00000000000023</v>
       </c>
       <c r="R41" s="1">
-        <f>IFERROR(VLOOKUP(A41,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A41,[2]Sheet!$A:$D,4,0),0)</f>
         <v>91</v>
       </c>
       <c r="S41" s="1">
@@ -7114,7 +7114,7 @@
         <v>0</v>
       </c>
       <c r="R42" s="1">
-        <f>IFERROR(VLOOKUP(A42,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A42,[2]Sheet!$A:$D,4,0),0)</f>
         <v>91</v>
       </c>
       <c r="S42" s="1">
@@ -7246,7 +7246,7 @@
         <v>139.60839999999999</v>
       </c>
       <c r="R43" s="1">
-        <f>IFERROR(VLOOKUP(A43,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A43,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S43" s="1">
@@ -7379,7 +7379,7 @@
         <v>350</v>
       </c>
       <c r="R44" s="1">
-        <f>IFERROR(VLOOKUP(A44,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A44,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S44" s="1">
@@ -7514,7 +7514,7 @@
         <v>508.60000000000008</v>
       </c>
       <c r="R45" s="1">
-        <f>IFERROR(VLOOKUP(A45,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A45,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S45" s="1">
@@ -7649,7 +7649,7 @@
         <v>95.40160000000003</v>
       </c>
       <c r="R46" s="1">
-        <f>IFERROR(VLOOKUP(A46,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A46,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S46" s="1">
@@ -7782,7 +7782,7 @@
         <v>0</v>
       </c>
       <c r="R47" s="1">
-        <f>IFERROR(VLOOKUP(A47,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A47,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S47" s="1">
@@ -7909,7 +7909,7 @@
         <v>0</v>
       </c>
       <c r="R48" s="1">
-        <f>IFERROR(VLOOKUP(A48,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A48,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S48" s="15">
@@ -8041,7 +8041,7 @@
         <v>300</v>
       </c>
       <c r="R49" s="1">
-        <f>IFERROR(VLOOKUP(A49,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A49,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S49" s="1">
@@ -8174,7 +8174,7 @@
         <v>60.800000000000011</v>
       </c>
       <c r="R50" s="1">
-        <f>IFERROR(VLOOKUP(A50,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A50,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S50" s="1">
@@ -8305,7 +8305,7 @@
         <v>65.999999999999972</v>
       </c>
       <c r="R51" s="1">
-        <f>IFERROR(VLOOKUP(A51,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A51,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S51" s="1">
@@ -8440,7 +8440,7 @@
         <v>0</v>
       </c>
       <c r="R52" s="1">
-        <f>IFERROR(VLOOKUP(A52,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A52,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S52" s="1">
@@ -8569,7 +8569,7 @@
         <v>76</v>
       </c>
       <c r="R53" s="1">
-        <f>IFERROR(VLOOKUP(A53,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A53,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S53" s="1">
@@ -8702,7 +8702,7 @@
         <v>573.64445200000034</v>
       </c>
       <c r="R54" s="1">
-        <f>IFERROR(VLOOKUP(A54,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A54,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S54" s="1">
@@ -8841,7 +8841,7 @@
         <v>4.2609999999999904</v>
       </c>
       <c r="R55" s="1">
-        <f>IFERROR(VLOOKUP(A55,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A55,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S55" s="1">
@@ -8974,7 +8974,7 @@
         <v>36.199999999999989</v>
       </c>
       <c r="R56" s="1">
-        <f>IFERROR(VLOOKUP(A56,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A56,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S56" s="1">
@@ -9102,7 +9102,7 @@
         <v>23.599999999999969</v>
       </c>
       <c r="R57" s="1">
-        <f>IFERROR(VLOOKUP(A57,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A57,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S57" s="1">
@@ -9231,7 +9231,7 @@
         <v>60</v>
       </c>
       <c r="R58" s="1">
-        <f>IFERROR(VLOOKUP(A58,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A58,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S58" s="1">
@@ -9359,7 +9359,7 @@
         <v>60</v>
       </c>
       <c r="R59" s="1">
-        <f>IFERROR(VLOOKUP(A59,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A59,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S59" s="1">
@@ -9487,7 +9487,7 @@
         <v>558.79999999999973</v>
       </c>
       <c r="R60" s="1">
-        <f>IFERROR(VLOOKUP(A60,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A60,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S60" s="1">
@@ -9618,7 +9618,7 @@
         <v>343.40000000000009</v>
       </c>
       <c r="R61" s="1">
-        <f>IFERROR(VLOOKUP(A61,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A61,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S61" s="1">
@@ -9751,7 +9751,7 @@
         <v>494.95720000000051</v>
       </c>
       <c r="R62" s="1">
-        <f>IFERROR(VLOOKUP(A62,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A62,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S62" s="1">
@@ -9884,7 +9884,7 @@
         <v>172.35100000000011</v>
       </c>
       <c r="R63" s="1">
-        <f>IFERROR(VLOOKUP(A63,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A63,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S63" s="1">
@@ -10014,7 +10014,7 @@
         <v>11.427399999999871</v>
       </c>
       <c r="R64" s="1">
-        <f>IFERROR(VLOOKUP(A64,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A64,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S64" s="1">
@@ -10145,7 +10145,7 @@
         <v>60.969199999999987</v>
       </c>
       <c r="R65" s="1">
-        <f>IFERROR(VLOOKUP(A65,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A65,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S65" s="1">
@@ -10276,7 +10276,7 @@
         <v>200</v>
       </c>
       <c r="R66" s="1">
-        <f>IFERROR(VLOOKUP(A66,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A66,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S66" s="1">
@@ -10400,7 +10400,7 @@
         <v>0</v>
       </c>
       <c r="R67" s="1">
-        <f>IFERROR(VLOOKUP(A67,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A67,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S67" s="15">
@@ -10520,7 +10520,7 @@
         <v>0</v>
       </c>
       <c r="R68" s="1">
-        <f>IFERROR(VLOOKUP(A68,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A68,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S68" s="15">
@@ -10650,7 +10650,7 @@
         <v>200</v>
       </c>
       <c r="R69" s="1">
-        <f>IFERROR(VLOOKUP(A69,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A69,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S69" s="1">
@@ -10772,7 +10772,7 @@
         <v>0</v>
       </c>
       <c r="R70" s="1">
-        <f>IFERROR(VLOOKUP(A70,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A70,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S70" s="15">
@@ -10902,7 +10902,7 @@
         <v>0</v>
       </c>
       <c r="R71" s="1">
-        <f>IFERROR(VLOOKUP(A71,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A71,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S71" s="1">
@@ -10959,7 +10959,7 @@
         <v>43</v>
       </c>
       <c r="AM71" s="1">
-        <f t="shared" ref="AM71:AN94" si="31">ROUND(G71*W71,0)</f>
+        <f t="shared" ref="AM71:AM94" si="31">ROUND(G71*W71,0)</f>
         <v>0</v>
       </c>
       <c r="AN71" s="1">
@@ -11022,7 +11022,7 @@
         <v>0</v>
       </c>
       <c r="R72" s="1">
-        <f>IFERROR(VLOOKUP(A72,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A72,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S72" s="15">
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="R73" s="1">
-        <f>IFERROR(VLOOKUP(A73,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A73,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S73" s="1">
@@ -11282,7 +11282,7 @@
         <v>0</v>
       </c>
       <c r="R74" s="1">
-        <f>IFERROR(VLOOKUP(A74,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A74,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S74" s="1">
@@ -11420,7 +11420,7 @@
         <v>69.666514000000006</v>
       </c>
       <c r="R75" s="1">
-        <f>IFERROR(VLOOKUP(A75,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A75,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S75" s="1">
@@ -11553,7 +11553,7 @@
         <v>1943.03963</v>
       </c>
       <c r="R76" s="1">
-        <f>IFERROR(VLOOKUP(A76,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A76,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S76" s="1">
@@ -11685,7 +11685,7 @@
         <v>0</v>
       </c>
       <c r="R77" s="1">
-        <f>IFERROR(VLOOKUP(A77,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A77,[2]Sheet!$A:$D,4,0),0)</f>
         <v>127</v>
       </c>
       <c r="S77" s="1">
@@ -11820,7 +11820,7 @@
         <v>0</v>
       </c>
       <c r="R78" s="1">
-        <f>IFERROR(VLOOKUP(A78,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A78,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S78" s="1">
@@ -11950,7 +11950,7 @@
         <v>106.6</v>
       </c>
       <c r="R79" s="1">
-        <f>IFERROR(VLOOKUP(A79,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A79,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S79" s="1">
@@ -12081,7 +12081,7 @@
         <v>0</v>
       </c>
       <c r="R80" s="1">
-        <f>IFERROR(VLOOKUP(A80,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A80,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S80" s="1">
@@ -12212,7 +12212,7 @@
         <v>0</v>
       </c>
       <c r="R81" s="1">
-        <f>IFERROR(VLOOKUP(A81,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A81,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S81" s="1">
@@ -12343,7 +12343,7 @@
         <v>27.999999999999989</v>
       </c>
       <c r="R82" s="1">
-        <f>IFERROR(VLOOKUP(A82,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A82,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S82" s="1">
@@ -12474,7 +12474,7 @@
         <v>0</v>
       </c>
       <c r="R83" s="1">
-        <f>IFERROR(VLOOKUP(A83,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A83,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S83" s="1">
@@ -12605,7 +12605,7 @@
         <v>0</v>
       </c>
       <c r="R84" s="1">
-        <f>IFERROR(VLOOKUP(A84,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A84,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S84" s="1">
@@ -12733,7 +12733,7 @@
         <v>0</v>
       </c>
       <c r="R85" s="1">
-        <f>IFERROR(VLOOKUP(A85,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A85,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S85" s="1">
@@ -12859,7 +12859,7 @@
         <v>0</v>
       </c>
       <c r="R86" s="1">
-        <f>IFERROR(VLOOKUP(A86,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A86,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S86" s="12">
@@ -12989,7 +12989,7 @@
         <v>2279.8556000000008</v>
       </c>
       <c r="R87" s="1">
-        <f>IFERROR(VLOOKUP(A87,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A87,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S87" s="1">
@@ -13116,7 +13116,7 @@
       </c>
       <c r="Q88" s="11"/>
       <c r="R88" s="1">
-        <f>IFERROR(VLOOKUP(A88,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A88,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S88" s="1">
@@ -13248,7 +13248,7 @@
         <v>59.599999999999973</v>
       </c>
       <c r="R89" s="1">
-        <f>IFERROR(VLOOKUP(A89,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A89,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S89" s="1">
@@ -13379,7 +13379,7 @@
         <v>83</v>
       </c>
       <c r="R90" s="1">
-        <f>IFERROR(VLOOKUP(A90,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A90,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S90" s="1">
@@ -13512,7 +13512,7 @@
         <v>46.118999999999957</v>
       </c>
       <c r="R91" s="1">
-        <f>IFERROR(VLOOKUP(A91,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A91,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S91" s="1">
@@ -13643,7 +13643,7 @@
         <v>44.399999999999991</v>
       </c>
       <c r="R92" s="1">
-        <f>IFERROR(VLOOKUP(A92,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A92,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S92" s="1">
@@ -13771,7 +13771,7 @@
         <v>0</v>
       </c>
       <c r="R93" s="1">
-        <f>IFERROR(VLOOKUP(A93,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A93,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S93" s="1">
@@ -13890,7 +13890,7 @@
       </c>
       <c r="Q94" s="11"/>
       <c r="R94" s="1">
-        <f>IFERROR(VLOOKUP(A94,[1]Sheet!$A:$D,4,0),0)</f>
+        <f>IFERROR(VLOOKUP(A94,[2]Sheet!$A:$D,4,0),0)</f>
         <v>0</v>
       </c>
       <c r="S94" s="1">
